--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,10 +49,7 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
-  </si>
-  <si>
-    <t>12 Apr -- 18 Apr 2020</t>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>19 Apr -- 25 Apr 2020</t>
@@ -173,6 +170,12 @@
   </si>
   <si>
     <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -533,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,25 +585,25 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>2148.43</v>
+        <v>2202.86</v>
       </c>
       <c r="D2">
-        <v>2148.43</v>
+        <v>2202.86</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="H2">
-        <v>69.84</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="I2">
-        <v>1821.36</v>
+        <v>1833.86</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -611,16 +614,16 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2202.86</v>
+        <v>1933.57</v>
       </c>
       <c r="D3">
-        <v>2202.86</v>
+        <v>1933.57</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,16 +634,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1933.57</v>
+        <v>1753.71</v>
       </c>
       <c r="D4">
-        <v>1933.57</v>
+        <v>1753.71</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -651,16 +654,16 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1753.71</v>
+        <v>1426.86</v>
       </c>
       <c r="D5">
-        <v>1753.71</v>
+        <v>1426.86</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,16 +674,16 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1426.86</v>
+        <v>1220.57</v>
       </c>
       <c r="D6">
-        <v>1426.86</v>
+        <v>1220.57</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -691,16 +694,16 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>1220.57</v>
+        <v>946.14</v>
       </c>
       <c r="D7">
-        <v>1220.57</v>
+        <v>946.14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>946.14</v>
+        <v>873.71</v>
       </c>
       <c r="D8">
-        <v>946.14</v>
+        <v>873.71</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,16 +734,16 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>873.71</v>
+        <v>744.29</v>
       </c>
       <c r="D9">
-        <v>873.71</v>
+        <v>744.29</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,16 +754,16 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>744.29</v>
+        <v>602.14</v>
       </c>
       <c r="D10">
-        <v>744.29</v>
+        <v>602.14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -771,16 +774,16 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>602.14</v>
+        <v>565.86</v>
       </c>
       <c r="D11">
-        <v>602.14</v>
+        <v>565.86</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -791,16 +794,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>565.86</v>
+        <v>524.14</v>
       </c>
       <c r="D12">
-        <v>565.86</v>
+        <v>524.14</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,16 +814,16 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>524.14</v>
+        <v>748.86</v>
       </c>
       <c r="D13">
-        <v>524.14</v>
+        <v>748.86</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -831,16 +834,16 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>748.86</v>
+        <v>786.29</v>
       </c>
       <c r="D14">
-        <v>748.86</v>
+        <v>786.29</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -851,16 +854,16 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>786.29</v>
+        <v>922</v>
       </c>
       <c r="D15">
-        <v>786.29</v>
+        <v>922</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,16 +874,16 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>922</v>
+        <v>1140.43</v>
       </c>
       <c r="D16">
-        <v>922</v>
+        <v>1140.43</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -891,16 +894,16 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>1140.43</v>
+        <v>1038.43</v>
       </c>
       <c r="D17">
-        <v>1140.43</v>
+        <v>1038.43</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -911,16 +914,16 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>1038.43</v>
+        <v>1007.43</v>
       </c>
       <c r="D18">
-        <v>1038.43</v>
+        <v>1007.43</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -931,16 +934,16 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>1007.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D19">
-        <v>1007.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -951,16 +954,16 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>973.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D20">
-        <v>973.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -971,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>894.5700000000001</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D21">
-        <v>902.49</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E21">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -991,16 +994,16 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>846.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="D22">
-        <v>1048.02</v>
+        <v>733.14</v>
       </c>
       <c r="E22">
-        <v>201.59</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1011,16 +1014,16 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>733.14</v>
+        <v>797.86</v>
       </c>
       <c r="D23">
-        <v>969.26</v>
+        <v>797.86</v>
       </c>
       <c r="E23">
-        <v>236.12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1031,16 +1034,16 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>797.86</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D24">
-        <v>830.03</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E24">
-        <v>32.17</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1051,16 +1054,16 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>766.4299999999999</v>
+        <v>702.14</v>
       </c>
       <c r="D25">
-        <v>930.98</v>
+        <v>702.14</v>
       </c>
       <c r="E25">
-        <v>164.55</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1071,16 +1074,16 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>702.14</v>
+        <v>714.29</v>
       </c>
       <c r="D26">
-        <v>916.11</v>
+        <v>714.29</v>
       </c>
       <c r="E26">
-        <v>213.97</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1091,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>714.29</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D27">
-        <v>843</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E27">
-        <v>128.71</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1111,16 +1114,16 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>717.4299999999999</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D28">
-        <v>860.0599999999999</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E28">
-        <v>142.63</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1131,16 +1134,16 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>821.5700000000001</v>
+        <v>819</v>
       </c>
       <c r="D29">
-        <v>833.5599999999999</v>
+        <v>819</v>
       </c>
       <c r="E29">
-        <v>11.98</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1151,16 +1154,16 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>819</v>
+        <v>994.86</v>
       </c>
       <c r="D30">
-        <v>901.91</v>
+        <v>994.86</v>
       </c>
       <c r="E30">
-        <v>82.91</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1171,16 +1174,16 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>994.86</v>
+        <v>1087.29</v>
       </c>
       <c r="D31">
-        <v>908</v>
+        <v>1087.29</v>
       </c>
       <c r="E31">
-        <v>86.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1191,19 +1194,19 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>1087.29</v>
+        <v>1466.29</v>
       </c>
       <c r="D32">
-        <v>857.63</v>
+        <v>1466.29</v>
       </c>
       <c r="E32">
-        <v>229.66</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1211,19 +1214,19 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>1466.29</v>
+        <v>1447.14</v>
       </c>
       <c r="D33">
-        <v>838.88</v>
+        <v>1447.14</v>
       </c>
       <c r="E33">
-        <v>627.4</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1231,19 +1234,19 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>1447.14</v>
+        <v>2150.29</v>
       </c>
       <c r="D34">
-        <v>801.65</v>
+        <v>2150.29</v>
       </c>
       <c r="E34">
-        <v>645.49</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1251,19 +1254,19 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>2150.29</v>
+        <v>2383.14</v>
       </c>
       <c r="D35">
-        <v>810.59</v>
+        <v>1458.31</v>
       </c>
       <c r="E35">
-        <v>1339.7</v>
+        <v>924.83</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1271,19 +1274,19 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>2383.14</v>
+        <v>2607.86</v>
       </c>
       <c r="D36">
-        <v>861.61</v>
+        <v>1523.49</v>
       </c>
       <c r="E36">
-        <v>1521.53</v>
+        <v>1084.36</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1291,19 +1294,19 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>2607.86</v>
+        <v>2250</v>
       </c>
       <c r="D37">
-        <v>786.5</v>
+        <v>1335.92</v>
       </c>
       <c r="E37">
-        <v>1821.36</v>
+        <v>914.08</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1311,51 +1314,33 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>2250</v>
+        <v>2611</v>
       </c>
       <c r="D38">
-        <v>1339.92</v>
+        <v>1239.12</v>
       </c>
       <c r="E38">
-        <v>910.08</v>
+        <v>1371.88</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38">
-        <v>910.08</v>
-      </c>
-      <c r="K38">
-        <v>40.45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
       </c>
-      <c r="C39">
-        <v>2611</v>
-      </c>
       <c r="D39">
-        <v>1288</v>
-      </c>
-      <c r="E39">
-        <v>1323</v>
+        <v>1224.94</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39">
-        <v>1116.54</v>
-      </c>
-      <c r="K39">
-        <v>45.56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1363,13 +1348,13 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>1356.92</v>
+        <v>1237.05</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1377,13 +1362,13 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>1726.53</v>
+        <v>1294.1</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1391,10 +1376,24 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>1790.65</v>
+        <v>1282.48</v>
       </c>
       <c r="F42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>53</v>
+      </c>
+      <c r="D43">
+        <v>1468.71</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,9 +49,21 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>12 Apr -- 18 Apr 2020</t>
+  </si>
+  <si>
     <t>19 Apr -- 25 Apr 2020</t>
   </si>
   <si>
@@ -176,6 +188,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -536,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,28 +597,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>2202.86</v>
+        <v>2148.43</v>
       </c>
       <c r="D2">
-        <v>2202.86</v>
+        <v>2148.43</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="H2">
-        <v>70.23999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="I2">
-        <v>1833.86</v>
+        <v>1821.36</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -611,19 +626,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>1933.57</v>
+        <v>2202.86</v>
       </c>
       <c r="D3">
-        <v>1933.57</v>
+        <v>2202.86</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,19 +646,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>1753.71</v>
+        <v>1933.57</v>
       </c>
       <c r="D4">
-        <v>1753.71</v>
+        <v>1933.57</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -651,19 +666,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>1426.86</v>
+        <v>1753.71</v>
       </c>
       <c r="D5">
-        <v>1426.86</v>
+        <v>1753.71</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,19 +686,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>1220.57</v>
+        <v>1426.86</v>
       </c>
       <c r="D6">
-        <v>1220.57</v>
+        <v>1426.86</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -691,19 +706,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>946.14</v>
+        <v>1220.57</v>
       </c>
       <c r="D7">
-        <v>946.14</v>
+        <v>1220.57</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,19 +726,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>873.71</v>
+        <v>946.14</v>
       </c>
       <c r="D8">
-        <v>873.71</v>
+        <v>946.14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,19 +746,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>744.29</v>
+        <v>873.71</v>
       </c>
       <c r="D9">
-        <v>744.29</v>
+        <v>873.71</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,19 +766,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>602.14</v>
+        <v>744.29</v>
       </c>
       <c r="D10">
-        <v>602.14</v>
+        <v>744.29</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -771,19 +786,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>565.86</v>
+        <v>602.14</v>
       </c>
       <c r="D11">
-        <v>565.86</v>
+        <v>602.14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -791,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>524.14</v>
+        <v>565.86</v>
       </c>
       <c r="D12">
-        <v>524.14</v>
+        <v>565.86</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,19 +826,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>748.86</v>
+        <v>524.14</v>
       </c>
       <c r="D13">
-        <v>748.86</v>
+        <v>524.14</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -831,19 +846,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>786.29</v>
+        <v>748.86</v>
       </c>
       <c r="D14">
-        <v>786.29</v>
+        <v>748.86</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -851,19 +866,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>922</v>
+        <v>786.29</v>
       </c>
       <c r="D15">
-        <v>922</v>
+        <v>786.29</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,19 +886,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>1140.43</v>
+        <v>922</v>
       </c>
       <c r="D16">
-        <v>1140.43</v>
+        <v>922</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -891,19 +906,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>1038.43</v>
+        <v>1140.43</v>
       </c>
       <c r="D17">
-        <v>1038.43</v>
+        <v>1140.43</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -911,19 +926,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>1007.43</v>
+        <v>1038.43</v>
       </c>
       <c r="D18">
-        <v>1007.43</v>
+        <v>1038.43</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -931,19 +946,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>973.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="D19">
-        <v>973.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -951,19 +966,19 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>894.5700000000001</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D20">
-        <v>894.5700000000001</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -971,19 +986,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>846.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D21">
-        <v>846.4299999999999</v>
+        <v>902.49</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -991,19 +1006,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>733.14</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D22">
-        <v>733.14</v>
+        <v>1048.02</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>201.59</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1011,19 +1026,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>797.86</v>
+        <v>733.14</v>
       </c>
       <c r="D23">
-        <v>797.86</v>
+        <v>969.26</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>236.12</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1031,19 +1046,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>766.4299999999999</v>
+        <v>797.86</v>
       </c>
       <c r="D24">
-        <v>766.4299999999999</v>
+        <v>830.03</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>32.17</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1051,19 +1066,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>702.14</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D25">
-        <v>702.14</v>
+        <v>930.98</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>164.55</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1071,19 +1086,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>714.29</v>
+        <v>702.14</v>
       </c>
       <c r="D26">
-        <v>714.29</v>
+        <v>916.11</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>213.97</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1091,19 +1106,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>717.4299999999999</v>
+        <v>714.29</v>
       </c>
       <c r="D27">
-        <v>717.4299999999999</v>
+        <v>843</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>128.71</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1111,19 +1126,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>821.5700000000001</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D28">
-        <v>821.5700000000001</v>
+        <v>860.0599999999999</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>142.63</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1131,19 +1146,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>819</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D29">
-        <v>819</v>
+        <v>833.5599999999999</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>11.98</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1151,19 +1166,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>994.86</v>
+        <v>819</v>
       </c>
       <c r="D30">
-        <v>994.86</v>
+        <v>901.91</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>82.91</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1171,19 +1186,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>1087.29</v>
+        <v>994.86</v>
       </c>
       <c r="D31">
-        <v>1087.29</v>
+        <v>908</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1191,209 +1206,546 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
+        <v>1087.29</v>
+      </c>
+      <c r="D32">
+        <v>857.63</v>
+      </c>
+      <c r="E32">
+        <v>229.66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
         <v>1466.29</v>
       </c>
-      <c r="D32">
-        <v>1466.29</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D33">
+        <v>838.88</v>
+      </c>
+      <c r="E33">
+        <v>627.4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>1447.14</v>
+      </c>
+      <c r="D34">
+        <v>801.65</v>
+      </c>
+      <c r="E34">
+        <v>645.49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>2150.29</v>
+      </c>
+      <c r="D35">
+        <v>810.59</v>
+      </c>
+      <c r="E35">
+        <v>1339.7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>2383.14</v>
+      </c>
+      <c r="D36">
+        <v>861.61</v>
+      </c>
+      <c r="E36">
+        <v>1521.53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>2607.86</v>
+      </c>
+      <c r="D37">
+        <v>786.5</v>
+      </c>
+      <c r="E37">
+        <v>1821.36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>2243.29</v>
+      </c>
+      <c r="D38">
+        <v>1339.92</v>
+      </c>
+      <c r="E38">
+        <v>903.36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38">
+        <v>903.36</v>
+      </c>
+      <c r="K38">
+        <v>40.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>2604.14</v>
+      </c>
+      <c r="D39">
+        <v>1288</v>
+      </c>
+      <c r="E39">
+        <v>1316.15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39">
+        <v>1109.76</v>
+      </c>
+      <c r="K39">
+        <v>45.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>3174.14</v>
+      </c>
+      <c r="D40">
+        <v>1356.92</v>
+      </c>
+      <c r="E40">
+        <v>1817.23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40">
+        <v>1345.58</v>
+      </c>
+      <c r="K40">
+        <v>49.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>1447.14</v>
-      </c>
-      <c r="D33">
-        <v>1447.14</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="C41">
+        <v>3333.57</v>
+      </c>
+      <c r="D41">
+        <v>1726.53</v>
+      </c>
+      <c r="E41">
+        <v>1607.04</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41">
+        <v>1410.94</v>
+      </c>
+      <c r="K41">
+        <v>49.07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>1790.65</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>2604.14</v>
+      </c>
+      <c r="D43">
+        <v>1200.83</v>
+      </c>
+      <c r="E43">
+        <v>1403.32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43">
+        <v>0.73</v>
+      </c>
+      <c r="H43">
+        <v>46.34</v>
+      </c>
+      <c r="I43">
+        <v>1039.61</v>
+      </c>
+      <c r="J43">
+        <v>1409.42</v>
+      </c>
+      <c r="K43">
+        <v>50.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>3174.14</v>
+      </c>
+      <c r="D44">
+        <v>1142.33</v>
+      </c>
+      <c r="E44">
+        <v>2031.81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44">
+        <v>1513.15</v>
+      </c>
+      <c r="K44">
+        <v>52.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <v>2150.29</v>
-      </c>
-      <c r="D34">
-        <v>2150.29</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="C45">
+        <v>3333.57</v>
+      </c>
+      <c r="D45">
+        <v>1403.82</v>
+      </c>
+      <c r="E45">
+        <v>1929.75</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45">
+        <v>1572.66</v>
+      </c>
+      <c r="K45">
+        <v>53.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>1238.7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>1152.55</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>3174.14</v>
+      </c>
+      <c r="D48">
+        <v>1225.55</v>
+      </c>
+      <c r="E48">
+        <v>1948.6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48">
+        <v>1.02</v>
+      </c>
+      <c r="H48">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="I48">
+        <v>1833.86</v>
+      </c>
+      <c r="J48">
+        <v>1619.66</v>
+      </c>
+      <c r="K48">
+        <v>54.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>2383.14</v>
-      </c>
-      <c r="D35">
-        <v>1458.31</v>
-      </c>
-      <c r="E35">
-        <v>924.83</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="C49">
+        <v>3333.57</v>
+      </c>
+      <c r="D49">
+        <v>1237.3</v>
+      </c>
+      <c r="E49">
+        <v>2096.27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49">
+        <v>1672.61</v>
+      </c>
+      <c r="K49">
+        <v>55.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>1293.93</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <v>1281.71</v>
+      </c>
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52">
+        <v>1467.27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36">
-        <v>2607.86</v>
-      </c>
-      <c r="D36">
-        <v>1523.49</v>
-      </c>
-      <c r="E36">
-        <v>1084.36</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>2250</v>
-      </c>
-      <c r="D37">
-        <v>1335.92</v>
-      </c>
-      <c r="E37">
-        <v>914.08</v>
-      </c>
-      <c r="F37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38">
-        <v>2611</v>
-      </c>
-      <c r="D38">
-        <v>1239.12</v>
-      </c>
-      <c r="E38">
-        <v>1371.88</v>
-      </c>
-      <c r="F38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>1224.94</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>1237.05</v>
-      </c>
-      <c r="F40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41">
-        <v>1294.1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42">
-        <v>1282.48</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <v>1468.71</v>
-      </c>
-      <c r="F43" t="s">
-        <v>54</v>
+      <c r="C53">
+        <v>3333.57</v>
+      </c>
+      <c r="D53">
+        <v>1212.81</v>
+      </c>
+      <c r="E53">
+        <v>2120.76</v>
+      </c>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53">
+        <v>0.82</v>
+      </c>
+      <c r="H53">
+        <v>56.4</v>
+      </c>
+      <c r="I53">
+        <v>1790.2</v>
+      </c>
+      <c r="J53">
+        <v>1717.43</v>
+      </c>
+      <c r="K53">
+        <v>55.99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>1242.38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>1218.44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56">
+        <v>1226.91</v>
+      </c>
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>1447.78</v>
+      </c>
+      <c r="F57" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="60">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1748,6 +1748,97 @@
         <v>59</v>
       </c>
     </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58">
+        <v>3333.57</v>
+      </c>
+      <c r="D58">
+        <v>1128.06</v>
+      </c>
+      <c r="E58">
+        <v>2205.51</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58">
+        <v>0.87</v>
+      </c>
+      <c r="H58">
+        <v>59.66</v>
+      </c>
+      <c r="I58">
+        <v>1893.79</v>
+      </c>
+      <c r="J58">
+        <v>1761.8</v>
+      </c>
+      <c r="K58">
+        <v>56.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59">
+        <v>1266.5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>1274.17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>1286.63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62">
+        <v>1526.29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2148.43</v>
@@ -609,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>0.96</v>
@@ -626,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>2202.86</v>
@@ -638,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1933.57</v>
@@ -658,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1753.71</v>
@@ -678,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -686,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1426.86</v>
@@ -698,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1220.57</v>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>946.14</v>
@@ -738,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>873.71</v>
@@ -758,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>744.29</v>
@@ -778,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>602.14</v>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -806,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>565.86</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -826,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>524.14</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>748.86</v>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -866,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>786.29</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -886,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>922</v>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>1140.43</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>1038.43</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>1007.43</v>
@@ -958,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>973.4299999999999</v>
@@ -978,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>894.5700000000001</v>
@@ -998,7 +1004,7 @@
         <v>7.92</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>846.4299999999999</v>
@@ -1018,7 +1024,7 @@
         <v>201.59</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>733.14</v>
@@ -1038,7 +1044,7 @@
         <v>236.12</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>797.86</v>
@@ -1058,7 +1064,7 @@
         <v>32.17</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>766.4299999999999</v>
@@ -1078,7 +1084,7 @@
         <v>164.55</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>702.14</v>
@@ -1098,7 +1104,7 @@
         <v>213.97</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>714.29</v>
@@ -1118,7 +1124,7 @@
         <v>128.71</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>717.4299999999999</v>
@@ -1138,7 +1144,7 @@
         <v>142.63</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>821.5700000000001</v>
@@ -1158,7 +1164,7 @@
         <v>11.98</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>819</v>
@@ -1178,7 +1184,7 @@
         <v>82.91</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>994.86</v>
@@ -1198,7 +1204,7 @@
         <v>86.84999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>1087.29</v>
@@ -1218,7 +1224,7 @@
         <v>229.66</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1226,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>1466.29</v>
@@ -1238,7 +1244,7 @@
         <v>627.4</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1246,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>1447.14</v>
@@ -1258,7 +1264,7 @@
         <v>645.49</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1266,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>2150.29</v>
@@ -1278,7 +1284,7 @@
         <v>1339.7</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1286,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>2383.14</v>
@@ -1298,7 +1304,7 @@
         <v>1521.53</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1306,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>2607.86</v>
@@ -1318,7 +1324,7 @@
         <v>1821.36</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1326,25 +1332,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
-        <v>2243.29</v>
+        <v>2241.86</v>
       </c>
       <c r="D38">
         <v>1339.92</v>
       </c>
       <c r="E38">
-        <v>903.36</v>
+        <v>901.9400000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J38">
-        <v>903.36</v>
+        <v>901.9400000000001</v>
       </c>
       <c r="K38">
-        <v>40.27</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1352,25 +1358,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D39">
         <v>1288</v>
       </c>
       <c r="E39">
-        <v>1316.15</v>
+        <v>1316.43</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J39">
-        <v>1109.76</v>
+        <v>1109.18</v>
       </c>
       <c r="K39">
-        <v>45.41</v>
+        <v>45.39</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1378,25 +1384,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D40">
         <v>1356.92</v>
       </c>
       <c r="E40">
-        <v>1817.23</v>
+        <v>1815.94</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J40">
-        <v>1345.58</v>
+        <v>1344.77</v>
       </c>
       <c r="K40">
-        <v>49.35</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1404,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>3333.57</v>
@@ -1416,13 +1422,13 @@
         <v>1607.04</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J41">
-        <v>1410.94</v>
+        <v>1410.34</v>
       </c>
       <c r="K41">
-        <v>49.07</v>
+        <v>49.05</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1430,13 +1436,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>1790.65</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1444,19 +1450,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D43">
         <v>1200.83</v>
       </c>
       <c r="E43">
-        <v>1403.32</v>
+        <v>1403.6</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>0.73</v>
@@ -1468,10 +1474,10 @@
         <v>1039.61</v>
       </c>
       <c r="J43">
-        <v>1409.42</v>
+        <v>1408.99</v>
       </c>
       <c r="K43">
-        <v>50.03</v>
+        <v>50.02</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1479,25 +1485,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D44">
         <v>1142.33</v>
       </c>
       <c r="E44">
-        <v>2031.81</v>
+        <v>2030.53</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J44">
-        <v>1513.15</v>
+        <v>1512.58</v>
       </c>
       <c r="K44">
-        <v>52.36</v>
+        <v>52.35</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1505,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>3333.57</v>
@@ -1517,13 +1523,13 @@
         <v>1929.75</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J45">
-        <v>1572.66</v>
+        <v>1572.17</v>
       </c>
       <c r="K45">
-        <v>53.15</v>
+        <v>53.14</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1531,13 +1537,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46">
         <v>1238.7</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1545,13 +1551,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47">
         <v>1152.55</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1559,19 +1565,19 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D48">
         <v>1225.55</v>
       </c>
       <c r="E48">
-        <v>1948.6</v>
+        <v>1947.31</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G48">
         <v>1.02</v>
@@ -1583,10 +1589,10 @@
         <v>1833.86</v>
       </c>
       <c r="J48">
-        <v>1619.66</v>
+        <v>1619.07</v>
       </c>
       <c r="K48">
-        <v>54.18</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1594,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1606,13 +1612,13 @@
         <v>2096.27</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J49">
-        <v>1672.61</v>
+        <v>1672.09</v>
       </c>
       <c r="K49">
-        <v>55.15</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1620,13 +1626,13 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>1293.93</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1634,13 +1640,13 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>1281.71</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1648,13 +1654,13 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>1467.27</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1662,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>3333.57</v>
@@ -1674,7 +1680,7 @@
         <v>2120.76</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G53">
         <v>0.82</v>
@@ -1686,7 +1692,7 @@
         <v>1790.2</v>
       </c>
       <c r="J53">
-        <v>1717.43</v>
+        <v>1716.96</v>
       </c>
       <c r="K53">
         <v>55.99</v>
@@ -1697,13 +1703,13 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <v>1242.38</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1711,13 +1717,13 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>1218.44</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1725,13 +1731,13 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56">
         <v>1226.91</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1739,13 +1745,13 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57">
         <v>1447.78</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1753,7 +1759,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>3333.57</v>
@@ -1765,7 +1771,7 @@
         <v>2205.51</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G58">
         <v>0.87</v>
@@ -1777,10 +1783,10 @@
         <v>1893.79</v>
       </c>
       <c r="J58">
-        <v>1761.8</v>
+        <v>1761.37</v>
       </c>
       <c r="K58">
-        <v>56.92</v>
+        <v>56.91</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1788,13 +1794,13 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D59">
         <v>1266.5</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1802,13 +1808,13 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60">
         <v>1274.17</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1816,13 +1822,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61">
         <v>1286.63</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1830,13 +1836,92 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <v>1526.29</v>
       </c>
       <c r="F62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <v>1242.36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H63">
+        <v>63.62</v>
+      </c>
+      <c r="I63">
+        <v>2120.76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64">
+        <v>1218.33</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65">
+        <v>1226.84</v>
+      </c>
+      <c r="F65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
         <v>59</v>
+      </c>
+      <c r="D66">
+        <v>1447.57</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67">
+        <v>1695.52</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2148.43</v>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.96</v>
@@ -632,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2202.86</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1933.57</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1753.71</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1426.86</v>
@@ -704,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1220.57</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>946.14</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>873.71</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>744.29</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>602.14</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>565.86</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>524.14</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>748.86</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>786.29</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>922</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1140.43</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>1038.43</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>1007.43</v>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>973.4299999999999</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>894.5700000000001</v>
@@ -1004,7 +1010,7 @@
         <v>7.92</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>846.4299999999999</v>
@@ -1024,7 +1030,7 @@
         <v>201.59</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>733.14</v>
@@ -1044,7 +1050,7 @@
         <v>236.12</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>797.86</v>
@@ -1064,7 +1070,7 @@
         <v>32.17</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>766.4299999999999</v>
@@ -1084,7 +1090,7 @@
         <v>164.55</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>702.14</v>
@@ -1104,7 +1110,7 @@
         <v>213.97</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>714.29</v>
@@ -1124,7 +1130,7 @@
         <v>128.71</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>717.4299999999999</v>
@@ -1144,7 +1150,7 @@
         <v>142.63</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>821.5700000000001</v>
@@ -1164,7 +1170,7 @@
         <v>11.98</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>819</v>
@@ -1184,7 +1190,7 @@
         <v>82.91</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>994.86</v>
@@ -1204,7 +1210,7 @@
         <v>86.84999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>1087.29</v>
@@ -1224,7 +1230,7 @@
         <v>229.66</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>1466.29</v>
@@ -1244,7 +1250,7 @@
         <v>627.4</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>1447.14</v>
@@ -1264,7 +1270,7 @@
         <v>645.49</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1272,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>2150.29</v>
@@ -1284,7 +1290,7 @@
         <v>1339.7</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1292,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>2383.14</v>
@@ -1304,7 +1310,7 @@
         <v>1521.53</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1312,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>2607.86</v>
@@ -1324,7 +1330,7 @@
         <v>1821.36</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1332,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>2241.86</v>
@@ -1344,7 +1350,7 @@
         <v>901.9400000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J38">
         <v>901.9400000000001</v>
@@ -1358,22 +1364,22 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D39">
         <v>1288</v>
       </c>
       <c r="E39">
-        <v>1316.43</v>
+        <v>1317</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J39">
-        <v>1109.18</v>
+        <v>1109.47</v>
       </c>
       <c r="K39">
         <v>45.39</v>
@@ -1384,25 +1390,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D40">
         <v>1356.92</v>
       </c>
       <c r="E40">
-        <v>1815.94</v>
+        <v>1817.37</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J40">
-        <v>1344.77</v>
+        <v>1345.44</v>
       </c>
       <c r="K40">
-        <v>49.34</v>
+        <v>49.35</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1410,25 +1416,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D41">
         <v>1726.53</v>
       </c>
       <c r="E41">
-        <v>1607.04</v>
+        <v>1608.75</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J41">
-        <v>1410.34</v>
+        <v>1411.27</v>
       </c>
       <c r="K41">
-        <v>49.05</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1436,13 +1442,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>3085.57</v>
       </c>
       <c r="D42">
         <v>1790.65</v>
       </c>
+      <c r="E42">
+        <v>1294.93</v>
+      </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J42">
+        <v>1388</v>
+      </c>
+      <c r="K42">
+        <v>47.65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1450,19 +1468,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D43">
         <v>1200.83</v>
       </c>
       <c r="E43">
-        <v>1403.6</v>
+        <v>1404.17</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G43">
         <v>0.73</v>
@@ -1474,10 +1492,10 @@
         <v>1039.61</v>
       </c>
       <c r="J43">
-        <v>1408.99</v>
+        <v>1390.69</v>
       </c>
       <c r="K43">
-        <v>50.02</v>
+        <v>48.69</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1485,25 +1503,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D44">
         <v>1142.33</v>
       </c>
       <c r="E44">
-        <v>2030.53</v>
+        <v>2031.95</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J44">
-        <v>1512.58</v>
+        <v>1482.3</v>
       </c>
       <c r="K44">
-        <v>52.35</v>
+        <v>50.88</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1511,25 +1529,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D45">
         <v>1403.82</v>
       </c>
       <c r="E45">
-        <v>1929.75</v>
+        <v>1931.46</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J45">
-        <v>1572.17</v>
+        <v>1538.45</v>
       </c>
       <c r="K45">
-        <v>53.14</v>
+        <v>51.76</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1537,13 +1555,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>3085.57</v>
       </c>
       <c r="D46">
         <v>1238.7</v>
       </c>
+      <c r="E46">
+        <v>1846.87</v>
+      </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J46">
+        <v>1572.72</v>
+      </c>
+      <c r="K46">
+        <v>52.66</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1551,13 +1581,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>3141</v>
       </c>
       <c r="D47">
         <v>1152.55</v>
       </c>
+      <c r="E47">
+        <v>1988.45</v>
+      </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J47">
+        <v>1614.29</v>
+      </c>
+      <c r="K47">
+        <v>53.72</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1565,19 +1607,19 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D48">
         <v>1225.55</v>
       </c>
       <c r="E48">
-        <v>1947.31</v>
+        <v>1948.74</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1.02</v>
@@ -1589,10 +1631,10 @@
         <v>1833.86</v>
       </c>
       <c r="J48">
-        <v>1619.07</v>
+        <v>1644.69</v>
       </c>
       <c r="K48">
-        <v>54.17</v>
+        <v>54.42</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1600,25 +1642,25 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D49">
         <v>1237.3</v>
       </c>
       <c r="E49">
-        <v>2096.27</v>
+        <v>2097.99</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J49">
-        <v>1672.09</v>
+        <v>1682.47</v>
       </c>
       <c r="K49">
-        <v>55.14</v>
+        <v>55.13</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1626,13 +1668,25 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>3085.57</v>
       </c>
       <c r="D50">
         <v>1293.93</v>
       </c>
+      <c r="E50">
+        <v>1791.64</v>
+      </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J50">
+        <v>1690.87</v>
+      </c>
+      <c r="K50">
+        <v>55.35</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1640,13 +1694,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>3141</v>
       </c>
       <c r="D51">
         <v>1281.71</v>
       </c>
+      <c r="E51">
+        <v>1859.29</v>
+      </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J51">
+        <v>1702.9</v>
+      </c>
+      <c r="K51">
+        <v>55.63</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1654,13 +1720,13 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>1467.27</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1668,19 +1734,19 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D53">
         <v>1212.81</v>
       </c>
       <c r="E53">
-        <v>2120.76</v>
+        <v>2122.48</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>0.82</v>
@@ -1692,10 +1758,10 @@
         <v>1790.2</v>
       </c>
       <c r="J53">
-        <v>1716.96</v>
+        <v>1730.87</v>
       </c>
       <c r="K53">
-        <v>55.99</v>
+        <v>56.16</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1703,13 +1769,25 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>3085.57</v>
       </c>
       <c r="D54">
         <v>1242.38</v>
       </c>
+      <c r="E54">
+        <v>1843.19</v>
+      </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J54">
+        <v>1737.89</v>
+      </c>
+      <c r="K54">
+        <v>56.38</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1717,13 +1795,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>3141</v>
       </c>
       <c r="D55">
         <v>1218.44</v>
       </c>
+      <c r="E55">
+        <v>1922.56</v>
+      </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J55">
+        <v>1748.75</v>
+      </c>
+      <c r="K55">
+        <v>56.67</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1731,13 +1821,13 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56">
         <v>1226.91</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1745,13 +1835,13 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>1447.78</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1759,19 +1849,19 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D58">
         <v>1128.06</v>
       </c>
       <c r="E58">
-        <v>2205.51</v>
+        <v>2207.23</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G58">
         <v>0.87</v>
@@ -1783,10 +1873,10 @@
         <v>1893.79</v>
       </c>
       <c r="J58">
-        <v>1761.37</v>
+        <v>1774.22</v>
       </c>
       <c r="K58">
-        <v>56.91</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1794,13 +1884,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>3085.57</v>
       </c>
       <c r="D59">
         <v>1266.5</v>
       </c>
+      <c r="E59">
+        <v>1819.07</v>
+      </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J59">
+        <v>1776.58</v>
+      </c>
+      <c r="K59">
+        <v>57.29</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1808,13 +1910,25 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>3141</v>
       </c>
       <c r="D60">
         <v>1274.17</v>
       </c>
+      <c r="E60">
+        <v>1866.83</v>
+      </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J60">
+        <v>1781.1</v>
+      </c>
+      <c r="K60">
+        <v>57.4</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1822,13 +1936,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>1286.63</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1836,13 +1950,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>1526.29</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1850,13 +1964,19 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C63">
+        <v>3085.57</v>
       </c>
       <c r="D63">
         <v>1242.36</v>
       </c>
+      <c r="E63">
+        <v>1843.21</v>
+      </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G63">
         <v>0.9399999999999999</v>
@@ -1866,6 +1986,12 @@
       </c>
       <c r="I63">
         <v>2120.76</v>
+      </c>
+      <c r="J63">
+        <v>1784.05</v>
+      </c>
+      <c r="K63">
+        <v>57.51</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1873,55 +1999,258 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C64">
+        <v>3141</v>
       </c>
       <c r="D64">
         <v>1218.33</v>
       </c>
+      <c r="E64">
+        <v>1922.67</v>
+      </c>
       <c r="F64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="J64">
+        <v>1790.35</v>
+      </c>
+      <c r="K64">
+        <v>57.68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D65">
         <v>1226.84</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66">
         <v>1447.57</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D67">
         <v>1695.52</v>
       </c>
       <c r="F67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68">
+        <v>3085.57</v>
+      </c>
+      <c r="D68">
+        <v>1261.04</v>
+      </c>
+      <c r="E68">
+        <v>1824.53</v>
+      </c>
+      <c r="F68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68">
+        <v>63.29</v>
+      </c>
+      <c r="I68">
+        <v>2109.82</v>
+      </c>
+      <c r="J68">
+        <v>1791.84</v>
+      </c>
+      <c r="K68">
+        <v>57.74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69">
+        <v>3141</v>
+      </c>
+      <c r="D69">
+        <v>1299.4</v>
+      </c>
+      <c r="E69">
+        <v>1841.6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>63</v>
+      </c>
+      <c r="J69">
+        <v>1793.91</v>
+      </c>
+      <c r="K69">
+        <v>57.78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70">
+        <v>1350.26</v>
+      </c>
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71">
+        <v>1581.74</v>
+      </c>
+      <c r="F71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
         <v>61</v>
+      </c>
+      <c r="D72">
+        <v>1733.99</v>
+      </c>
+      <c r="F72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73">
+        <v>3141</v>
+      </c>
+      <c r="D73">
+        <v>1706.37</v>
+      </c>
+      <c r="E73">
+        <v>1434.63</v>
+      </c>
+      <c r="F73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73">
+        <v>1.1</v>
+      </c>
+      <c r="H73">
+        <v>57.65</v>
+      </c>
+      <c r="I73">
+        <v>1778.8</v>
+      </c>
+      <c r="J73">
+        <v>1779.54</v>
+      </c>
+      <c r="K73">
+        <v>57.29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74">
+        <v>1881.15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75">
+        <v>2311.76</v>
+      </c>
+      <c r="F75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76">
+        <v>2463.65</v>
+      </c>
+      <c r="F76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77">
+        <v>2186.97</v>
+      </c>
+      <c r="F77" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2148.43</v>
@@ -621,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0.96</v>
@@ -638,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2202.86</v>
@@ -650,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1933.57</v>
@@ -670,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1753.71</v>
@@ -690,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1426.86</v>
@@ -710,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1220.57</v>
@@ -730,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>946.14</v>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>873.71</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>744.29</v>
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>602.14</v>
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>565.86</v>
@@ -830,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>524.14</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>748.86</v>
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>786.29</v>
@@ -890,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>922</v>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1140.43</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>1038.43</v>
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>1007.43</v>
@@ -970,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>973.4299999999999</v>
@@ -990,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>894.5700000000001</v>
@@ -1010,7 +1016,7 @@
         <v>7.92</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>846.4299999999999</v>
@@ -1030,7 +1036,7 @@
         <v>201.59</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>733.14</v>
@@ -1050,7 +1056,7 @@
         <v>236.12</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>797.86</v>
@@ -1070,7 +1076,7 @@
         <v>32.17</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>766.4299999999999</v>
@@ -1090,7 +1096,7 @@
         <v>164.55</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>702.14</v>
@@ -1110,7 +1116,7 @@
         <v>213.97</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>714.29</v>
@@ -1130,7 +1136,7 @@
         <v>128.71</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>717.4299999999999</v>
@@ -1150,7 +1156,7 @@
         <v>142.63</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>821.5700000000001</v>
@@ -1170,7 +1176,7 @@
         <v>11.98</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>819</v>
@@ -1190,7 +1196,7 @@
         <v>82.91</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>994.86</v>
@@ -1210,7 +1216,7 @@
         <v>86.84999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>1087.29</v>
@@ -1230,7 +1236,7 @@
         <v>229.66</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>1466.29</v>
@@ -1250,7 +1256,7 @@
         <v>627.4</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>1447.14</v>
@@ -1270,7 +1276,7 @@
         <v>645.49</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>2150.29</v>
@@ -1290,7 +1296,7 @@
         <v>1339.7</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>2383.14</v>
@@ -1310,7 +1316,7 @@
         <v>1521.53</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>2607.86</v>
@@ -1330,7 +1336,7 @@
         <v>1821.36</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>2241.86</v>
@@ -1350,7 +1356,7 @@
         <v>901.9400000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J38">
         <v>901.9400000000001</v>
@@ -1364,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>2605</v>
@@ -1376,7 +1382,7 @@
         <v>1317</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J39">
         <v>1109.47</v>
@@ -1390,22 +1396,22 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D40">
         <v>1356.92</v>
       </c>
       <c r="E40">
-        <v>1817.37</v>
+        <v>1816.94</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J40">
-        <v>1345.44</v>
+        <v>1345.29</v>
       </c>
       <c r="K40">
         <v>49.35</v>
@@ -1416,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>3335.29</v>
@@ -1428,10 +1434,10 @@
         <v>1608.75</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J41">
-        <v>1411.27</v>
+        <v>1411.16</v>
       </c>
       <c r="K41">
         <v>49.07</v>
@@ -1442,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>3085.57</v>
@@ -1454,10 +1460,10 @@
         <v>1294.93</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J42">
-        <v>1388</v>
+        <v>1387.91</v>
       </c>
       <c r="K42">
         <v>47.65</v>
@@ -1468,7 +1474,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>2605</v>
@@ -1480,7 +1486,7 @@
         <v>1404.17</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G43">
         <v>0.73</v>
@@ -1492,7 +1498,7 @@
         <v>1039.61</v>
       </c>
       <c r="J43">
-        <v>1390.69</v>
+        <v>1390.62</v>
       </c>
       <c r="K43">
         <v>48.69</v>
@@ -1503,22 +1509,22 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D44">
         <v>1142.33</v>
       </c>
       <c r="E44">
-        <v>2031.95</v>
+        <v>2031.53</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J44">
-        <v>1482.3</v>
+        <v>1482.18</v>
       </c>
       <c r="K44">
         <v>50.88</v>
@@ -1529,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>3335.29</v>
@@ -1541,10 +1547,10 @@
         <v>1931.46</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J45">
-        <v>1538.45</v>
+        <v>1538.34</v>
       </c>
       <c r="K45">
         <v>51.76</v>
@@ -1555,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>3085.57</v>
@@ -1567,10 +1573,10 @@
         <v>1846.87</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J46">
-        <v>1572.72</v>
+        <v>1572.62</v>
       </c>
       <c r="K46">
         <v>52.66</v>
@@ -1581,25 +1587,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D47">
         <v>1152.55</v>
       </c>
       <c r="E47">
-        <v>1988.45</v>
+        <v>1998.02</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J47">
-        <v>1614.29</v>
+        <v>1615.16</v>
       </c>
       <c r="K47">
-        <v>53.72</v>
+        <v>53.73</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1607,19 +1613,19 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D48">
         <v>1225.55</v>
       </c>
       <c r="E48">
-        <v>1948.74</v>
+        <v>1948.31</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G48">
         <v>1.02</v>
@@ -1631,10 +1637,10 @@
         <v>1833.86</v>
       </c>
       <c r="J48">
-        <v>1644.69</v>
+        <v>1645.45</v>
       </c>
       <c r="K48">
-        <v>54.42</v>
+        <v>54.43</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1642,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>3335.29</v>
@@ -1654,10 +1660,10 @@
         <v>2097.99</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J49">
-        <v>1682.47</v>
+        <v>1683.16</v>
       </c>
       <c r="K49">
         <v>55.13</v>
@@ -1668,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>3085.57</v>
@@ -1680,13 +1686,13 @@
         <v>1791.64</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J50">
-        <v>1690.87</v>
+        <v>1691.5</v>
       </c>
       <c r="K50">
-        <v>55.35</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1694,25 +1700,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D51">
         <v>1281.71</v>
       </c>
       <c r="E51">
-        <v>1859.29</v>
+        <v>1868.86</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J51">
-        <v>1702.9</v>
+        <v>1704.17</v>
       </c>
       <c r="K51">
-        <v>55.63</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1720,13 +1726,13 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>1467.27</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1734,7 +1740,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53">
         <v>3335.29</v>
@@ -1746,7 +1752,7 @@
         <v>2122.48</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G53">
         <v>0.82</v>
@@ -1758,10 +1764,10 @@
         <v>1790.2</v>
       </c>
       <c r="J53">
-        <v>1730.87</v>
+        <v>1732.06</v>
       </c>
       <c r="K53">
-        <v>56.16</v>
+        <v>56.18</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1769,7 +1775,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>3085.57</v>
@@ -1781,13 +1787,13 @@
         <v>1843.19</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J54">
-        <v>1737.89</v>
+        <v>1739</v>
       </c>
       <c r="K54">
-        <v>56.38</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1795,25 +1801,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D55">
         <v>1218.44</v>
       </c>
       <c r="E55">
-        <v>1922.56</v>
+        <v>1932.13</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J55">
-        <v>1748.75</v>
+        <v>1750.36</v>
       </c>
       <c r="K55">
-        <v>56.67</v>
+        <v>56.69</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1821,13 +1827,13 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56">
         <v>1226.91</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1835,13 +1841,13 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57">
         <v>1447.78</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1849,7 +1855,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <v>3335.29</v>
@@ -1861,7 +1867,7 @@
         <v>2207.23</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G58">
         <v>0.87</v>
@@ -1873,10 +1879,10 @@
         <v>1893.79</v>
       </c>
       <c r="J58">
-        <v>1774.22</v>
+        <v>1775.75</v>
       </c>
       <c r="K58">
-        <v>57.2</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1884,7 +1890,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>3085.57</v>
@@ -1896,13 +1902,13 @@
         <v>1819.07</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J59">
-        <v>1776.58</v>
+        <v>1778.03</v>
       </c>
       <c r="K59">
-        <v>57.29</v>
+        <v>57.31</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1910,25 +1916,25 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D60">
         <v>1274.17</v>
       </c>
       <c r="E60">
-        <v>1866.83</v>
+        <v>1876.4</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J60">
-        <v>1781.1</v>
+        <v>1782.95</v>
       </c>
       <c r="K60">
-        <v>57.4</v>
+        <v>57.42</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1936,13 +1942,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61">
         <v>1286.63</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1950,13 +1956,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62">
         <v>1526.29</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1964,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63">
         <v>3085.57</v>
@@ -1976,7 +1982,7 @@
         <v>1843.21</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G63">
         <v>0.9399999999999999</v>
@@ -1988,10 +1994,10 @@
         <v>2120.76</v>
       </c>
       <c r="J63">
-        <v>1784.05</v>
+        <v>1785.81</v>
       </c>
       <c r="K63">
-        <v>57.51</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1999,25 +2005,25 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D64">
         <v>1218.33</v>
       </c>
       <c r="E64">
-        <v>1922.67</v>
+        <v>1932.24</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J64">
-        <v>1790.35</v>
+        <v>1792.47</v>
       </c>
       <c r="K64">
-        <v>57.68</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2025,13 +2031,13 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65">
         <v>1226.84</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2039,13 +2045,13 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66">
         <v>1447.57</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2053,13 +2059,13 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D67">
         <v>1695.52</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2067,7 +2073,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68">
         <v>3085.57</v>
@@ -2079,7 +2085,7 @@
         <v>1824.53</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H68">
         <v>63.29</v>
@@ -2088,10 +2094,10 @@
         <v>2109.82</v>
       </c>
       <c r="J68">
-        <v>1791.84</v>
+        <v>1793.86</v>
       </c>
       <c r="K68">
-        <v>57.74</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2099,25 +2105,25 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D69">
         <v>1299.4</v>
       </c>
       <c r="E69">
-        <v>1841.6</v>
+        <v>1851.17</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J69">
-        <v>1793.91</v>
+        <v>1796.25</v>
       </c>
       <c r="K69">
-        <v>57.78</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2125,13 +2131,13 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>1350.26</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2139,13 +2145,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D71">
         <v>1581.74</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2153,13 +2159,13 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D72">
         <v>1733.99</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2167,19 +2173,19 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D73">
         <v>1706.37</v>
       </c>
       <c r="E73">
-        <v>1434.63</v>
+        <v>1444.2</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G73">
         <v>1.1</v>
@@ -2191,10 +2197,10 @@
         <v>1778.8</v>
       </c>
       <c r="J73">
-        <v>1779.54</v>
+        <v>1782.17</v>
       </c>
       <c r="K73">
-        <v>57.29</v>
+        <v>57.33</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2202,13 +2208,13 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D74">
         <v>1881.15</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2216,13 +2222,13 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D75">
         <v>2311.76</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2230,13 +2236,13 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D76">
         <v>2463.65</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2244,13 +2250,177 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D77">
         <v>2186.97</v>
       </c>
       <c r="F77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78">
+        <v>3150.57</v>
+      </c>
+      <c r="D78">
+        <v>1778.17</v>
+      </c>
+      <c r="E78">
+        <v>1372.4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78">
+        <v>1778.81</v>
+      </c>
+      <c r="J78">
+        <v>1766.41</v>
+      </c>
+      <c r="K78">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79">
+        <v>1839.23</v>
+      </c>
+      <c r="F79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80">
+        <v>2014.14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81">
+        <v>2993.43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
         <v>63</v>
+      </c>
+      <c r="D82">
+        <v>2525.94</v>
+      </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83">
+        <v>1867.05</v>
+      </c>
+      <c r="F83" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83">
+        <v>0.91</v>
+      </c>
+      <c r="H83">
+        <v>49.29</v>
+      </c>
+      <c r="I83">
+        <v>1552.94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84">
+        <v>2023.32</v>
+      </c>
+      <c r="F84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85">
+        <v>2062.88</v>
+      </c>
+      <c r="F85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86">
+        <v>2215.31</v>
+      </c>
+      <c r="F86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <v>2218.77</v>
+      </c>
+      <c r="F87" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="68">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>2148.43</v>
@@ -627,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>0.96</v>
@@ -644,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2202.86</v>
@@ -656,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1933.57</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1753.71</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1426.86</v>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1220.57</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>946.14</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>873.71</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>744.29</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>602.14</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>565.86</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>524.14</v>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>748.86</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>786.29</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>922</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1140.43</v>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>1038.43</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>1007.43</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>973.4299999999999</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>894.5700000000001</v>
@@ -1016,7 +1022,7 @@
         <v>7.92</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>846.4299999999999</v>
@@ -1036,7 +1042,7 @@
         <v>201.59</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>733.14</v>
@@ -1056,7 +1062,7 @@
         <v>236.12</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>797.86</v>
@@ -1076,7 +1082,7 @@
         <v>32.17</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>766.4299999999999</v>
@@ -1096,7 +1102,7 @@
         <v>164.55</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>702.14</v>
@@ -1116,7 +1122,7 @@
         <v>213.97</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>714.29</v>
@@ -1136,7 +1142,7 @@
         <v>128.71</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>717.4299999999999</v>
@@ -1156,7 +1162,7 @@
         <v>142.63</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>821.5700000000001</v>
@@ -1176,7 +1182,7 @@
         <v>11.98</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>819</v>
@@ -1196,7 +1202,7 @@
         <v>82.91</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>994.86</v>
@@ -1216,7 +1222,7 @@
         <v>86.84999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>1087.29</v>
@@ -1236,7 +1242,7 @@
         <v>229.66</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>1466.29</v>
@@ -1256,7 +1262,7 @@
         <v>627.4</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>1447.14</v>
@@ -1276,7 +1282,7 @@
         <v>645.49</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>2150.29</v>
@@ -1296,7 +1302,7 @@
         <v>1339.7</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1304,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>2383.14</v>
@@ -1316,7 +1322,7 @@
         <v>1521.53</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1324,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>2607.86</v>
@@ -1336,7 +1342,7 @@
         <v>1821.36</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1344,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>2241.86</v>
@@ -1356,7 +1362,7 @@
         <v>901.9400000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J38">
         <v>901.9400000000001</v>
@@ -1370,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>2605</v>
@@ -1382,7 +1388,7 @@
         <v>1317</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J39">
         <v>1109.47</v>
@@ -1396,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>3173.86</v>
@@ -1408,7 +1414,7 @@
         <v>1816.94</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J40">
         <v>1345.29</v>
@@ -1422,25 +1428,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D41">
         <v>1726.53</v>
       </c>
       <c r="E41">
-        <v>1608.75</v>
+        <v>1607.75</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J41">
-        <v>1411.16</v>
+        <v>1410.91</v>
       </c>
       <c r="K41">
-        <v>49.07</v>
+        <v>49.06</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1448,25 +1454,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D42">
         <v>1790.65</v>
       </c>
       <c r="E42">
-        <v>1294.93</v>
+        <v>1268.35</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J42">
-        <v>1387.91</v>
+        <v>1382.4</v>
       </c>
       <c r="K42">
-        <v>47.65</v>
+        <v>47.54</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1474,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>2605</v>
@@ -1486,7 +1492,7 @@
         <v>1404.17</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G43">
         <v>0.73</v>
@@ -1498,10 +1504,10 @@
         <v>1039.61</v>
       </c>
       <c r="J43">
-        <v>1390.62</v>
+        <v>1386.03</v>
       </c>
       <c r="K43">
-        <v>48.69</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1509,7 +1515,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>3173.86</v>
@@ -1521,13 +1527,13 @@
         <v>2031.53</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J44">
-        <v>1482.18</v>
+        <v>1478.24</v>
       </c>
       <c r="K44">
-        <v>50.88</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1535,25 +1541,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D45">
         <v>1403.82</v>
       </c>
       <c r="E45">
-        <v>1931.46</v>
+        <v>1930.46</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J45">
-        <v>1538.34</v>
+        <v>1534.77</v>
       </c>
       <c r="K45">
-        <v>51.76</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1561,25 +1567,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D46">
         <v>1238.7</v>
       </c>
       <c r="E46">
-        <v>1846.87</v>
+        <v>1820.3</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J46">
-        <v>1572.62</v>
+        <v>1566.49</v>
       </c>
       <c r="K46">
-        <v>52.66</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1587,25 +1593,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D47">
         <v>1152.55</v>
       </c>
       <c r="E47">
-        <v>1998.02</v>
+        <v>1977.74</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J47">
-        <v>1615.16</v>
+        <v>1607.62</v>
       </c>
       <c r="K47">
-        <v>53.73</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1613,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>3173.86</v>
@@ -1625,7 +1631,7 @@
         <v>1948.31</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G48">
         <v>1.02</v>
@@ -1637,10 +1643,10 @@
         <v>1833.86</v>
       </c>
       <c r="J48">
-        <v>1645.45</v>
+        <v>1638.59</v>
       </c>
       <c r="K48">
-        <v>54.43</v>
+        <v>54.33</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1648,25 +1654,25 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D49">
         <v>1237.3</v>
       </c>
       <c r="E49">
-        <v>2097.99</v>
+        <v>2096.99</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J49">
-        <v>1683.16</v>
+        <v>1676.79</v>
       </c>
       <c r="K49">
-        <v>55.13</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1674,25 +1680,25 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D50">
         <v>1293.93</v>
       </c>
       <c r="E50">
-        <v>1791.64</v>
+        <v>1765.07</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J50">
-        <v>1691.5</v>
+        <v>1683.58</v>
       </c>
       <c r="K50">
-        <v>55.36</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1700,25 +1706,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D51">
         <v>1281.71</v>
       </c>
       <c r="E51">
-        <v>1868.86</v>
+        <v>1848.57</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J51">
-        <v>1704.17</v>
+        <v>1695.37</v>
       </c>
       <c r="K51">
-        <v>55.64</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1726,13 +1732,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>2986.71</v>
       </c>
       <c r="D52">
         <v>1467.27</v>
       </c>
+      <c r="E52">
+        <v>1519.45</v>
+      </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J52">
+        <v>1683.64</v>
+      </c>
+      <c r="K52">
+        <v>55.21</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1740,19 +1758,19 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D53">
         <v>1212.81</v>
       </c>
       <c r="E53">
-        <v>2122.48</v>
+        <v>2121.48</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G53">
         <v>0.82</v>
@@ -1764,10 +1782,10 @@
         <v>1790.2</v>
       </c>
       <c r="J53">
-        <v>1732.06</v>
+        <v>1711</v>
       </c>
       <c r="K53">
-        <v>56.18</v>
+        <v>55.73</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1775,25 +1793,25 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D54">
         <v>1242.38</v>
       </c>
       <c r="E54">
-        <v>1843.19</v>
+        <v>1816.62</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J54">
-        <v>1739</v>
+        <v>1717.22</v>
       </c>
       <c r="K54">
-        <v>56.4</v>
+        <v>55.95</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1801,25 +1819,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D55">
         <v>1218.44</v>
       </c>
       <c r="E55">
-        <v>1932.13</v>
+        <v>1911.84</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J55">
-        <v>1750.36</v>
+        <v>1728.03</v>
       </c>
       <c r="K55">
-        <v>56.69</v>
+        <v>56.23</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1827,13 +1845,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>2986.71</v>
       </c>
       <c r="D56">
         <v>1226.91</v>
       </c>
+      <c r="E56">
+        <v>1759.81</v>
+      </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J56">
+        <v>1729.7</v>
+      </c>
+      <c r="K56">
+        <v>56.38</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1841,13 +1871,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>2487.29</v>
       </c>
       <c r="D57">
         <v>1447.78</v>
       </c>
+      <c r="E57">
+        <v>1039.51</v>
+      </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J57">
+        <v>1695.19</v>
+      </c>
+      <c r="K57">
+        <v>55.65</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1855,19 +1897,19 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D58">
         <v>1128.06</v>
       </c>
       <c r="E58">
-        <v>2207.23</v>
+        <v>2206.23</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G58">
         <v>0.87</v>
@@ -1879,10 +1921,10 @@
         <v>1893.79</v>
       </c>
       <c r="J58">
-        <v>1775.75</v>
+        <v>1719.53</v>
       </c>
       <c r="K58">
-        <v>57.22</v>
+        <v>56.15</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1890,25 +1932,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D59">
         <v>1266.5</v>
       </c>
       <c r="E59">
-        <v>1819.07</v>
+        <v>1792.5</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J59">
-        <v>1778.03</v>
+        <v>1722.84</v>
       </c>
       <c r="K59">
-        <v>57.31</v>
+        <v>56.26</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1916,25 +1958,25 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D60">
         <v>1274.17</v>
       </c>
       <c r="E60">
-        <v>1876.4</v>
+        <v>1856.11</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J60">
-        <v>1782.95</v>
+        <v>1728.64</v>
       </c>
       <c r="K60">
-        <v>57.42</v>
+        <v>56.39</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1942,13 +1984,25 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>2986.71</v>
       </c>
       <c r="D61">
         <v>1286.63</v>
       </c>
+      <c r="E61">
+        <v>1700.08</v>
+      </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J61">
+        <v>1727.45</v>
+      </c>
+      <c r="K61">
+        <v>56.41</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1956,13 +2010,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>2487.29</v>
       </c>
       <c r="D62">
         <v>1526.29</v>
       </c>
+      <c r="E62">
+        <v>961</v>
+      </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J62">
+        <v>1696.79</v>
+      </c>
+      <c r="K62">
+        <v>55.7</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1970,19 +2036,19 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D63">
         <v>1242.36</v>
       </c>
       <c r="E63">
-        <v>1843.21</v>
+        <v>1816.64</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G63">
         <v>0.9399999999999999</v>
@@ -1994,10 +2060,10 @@
         <v>2120.76</v>
       </c>
       <c r="J63">
-        <v>1785.81</v>
+        <v>1701.4</v>
       </c>
       <c r="K63">
-        <v>57.53</v>
+        <v>55.84</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2005,25 +2071,25 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D64">
         <v>1218.33</v>
       </c>
       <c r="E64">
-        <v>1932.24</v>
+        <v>1911.95</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J64">
-        <v>1792.47</v>
+        <v>1709.2</v>
       </c>
       <c r="K64">
-        <v>57.7</v>
+        <v>56.04</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2031,13 +2097,25 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>2986.71</v>
       </c>
       <c r="D65">
         <v>1226.84</v>
       </c>
+      <c r="E65">
+        <v>1759.87</v>
+      </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J65">
+        <v>1711.01</v>
+      </c>
+      <c r="K65">
+        <v>56.14</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2045,13 +2123,25 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>2487.29</v>
       </c>
       <c r="D66">
         <v>1447.57</v>
       </c>
+      <c r="E66">
+        <v>1039.72</v>
+      </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J66">
+        <v>1687.86</v>
+      </c>
+      <c r="K66">
+        <v>55.65</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2059,13 +2149,25 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C67">
+        <v>1906.71</v>
       </c>
       <c r="D67">
         <v>1695.52</v>
       </c>
+      <c r="E67">
+        <v>211.19</v>
+      </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J67">
+        <v>1638.64</v>
+      </c>
+      <c r="K67">
+        <v>54.16</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2073,19 +2175,19 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D68">
         <v>1261.04</v>
       </c>
       <c r="E68">
-        <v>1824.53</v>
+        <v>1797.96</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H68">
         <v>63.29</v>
@@ -2094,10 +2196,10 @@
         <v>2109.82</v>
       </c>
       <c r="J68">
-        <v>1793.86</v>
+        <v>1643.78</v>
       </c>
       <c r="K68">
-        <v>57.76</v>
+        <v>54.31</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2105,25 +2207,25 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D69">
         <v>1299.4</v>
       </c>
       <c r="E69">
-        <v>1851.17</v>
+        <v>1830.88</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J69">
-        <v>1796.25</v>
+        <v>1649.62</v>
       </c>
       <c r="K69">
-        <v>57.81</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2131,13 +2233,25 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C70">
+        <v>2986.71</v>
       </c>
       <c r="D70">
         <v>1350.26</v>
       </c>
+      <c r="E70">
+        <v>1636.46</v>
+      </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J70">
+        <v>1649.22</v>
+      </c>
+      <c r="K70">
+        <v>54.45</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2145,13 +2259,25 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C71">
+        <v>2487.29</v>
       </c>
       <c r="D71">
         <v>1581.74</v>
       </c>
+      <c r="E71">
+        <v>905.55</v>
+      </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J71">
+        <v>1627.35</v>
+      </c>
+      <c r="K71">
+        <v>53.92</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2159,13 +2285,25 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C72">
+        <v>1906.71</v>
       </c>
       <c r="D72">
         <v>1733.99</v>
       </c>
+      <c r="E72">
+        <v>172.72</v>
+      </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J72">
+        <v>1585.79</v>
+      </c>
+      <c r="K72">
+        <v>52.64</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2173,19 +2311,19 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D73">
         <v>1706.37</v>
       </c>
       <c r="E73">
-        <v>1444.2</v>
+        <v>1423.92</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G73">
         <v>1.1</v>
@@ -2197,10 +2335,10 @@
         <v>1778.8</v>
       </c>
       <c r="J73">
-        <v>1782.17</v>
+        <v>1581.29</v>
       </c>
       <c r="K73">
-        <v>57.33</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2208,13 +2346,25 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C74">
+        <v>2986.71</v>
       </c>
       <c r="D74">
         <v>1881.15</v>
       </c>
+      <c r="E74">
+        <v>1105.56</v>
+      </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J74">
+        <v>1568.44</v>
+      </c>
+      <c r="K74">
+        <v>52.02</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2222,13 +2372,25 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <v>2487.29</v>
       </c>
       <c r="D75">
         <v>2311.76</v>
       </c>
+      <c r="E75">
+        <v>175.53</v>
+      </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J75">
+        <v>1531.78</v>
+      </c>
+      <c r="K75">
+        <v>50.84</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2236,13 +2398,25 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C76">
+        <v>1906.71</v>
       </c>
       <c r="D76">
         <v>2463.65</v>
       </c>
+      <c r="E76">
+        <v>556.9400000000001</v>
+      </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J76">
+        <v>1506.79</v>
+      </c>
+      <c r="K76">
+        <v>50.28</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2250,13 +2424,13 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D77">
         <v>2186.97</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2264,28 +2438,28 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C78">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D78">
         <v>1778.17</v>
       </c>
       <c r="E78">
-        <v>1372.4</v>
+        <v>1352.11</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I78">
         <v>1778.81</v>
       </c>
       <c r="J78">
-        <v>1766.41</v>
+        <v>1502.92</v>
       </c>
       <c r="K78">
-        <v>56.8</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2293,13 +2467,25 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C79">
+        <v>2986.71</v>
       </c>
       <c r="D79">
         <v>1839.23</v>
       </c>
+      <c r="E79">
+        <v>1147.49</v>
+      </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J79">
+        <v>1494.25</v>
+      </c>
+      <c r="K79">
+        <v>49.82</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2307,55 +2493,85 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C80">
+        <v>2487.29</v>
       </c>
       <c r="D80">
         <v>2014.14</v>
       </c>
+      <c r="E80">
+        <v>473.15</v>
+      </c>
       <c r="F80" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J80">
+        <v>1469.94</v>
+      </c>
+      <c r="K80">
+        <v>49.09</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C81">
+        <v>1906.71</v>
       </c>
       <c r="D81">
         <v>2993.43</v>
       </c>
+      <c r="E81">
+        <v>1086.71</v>
+      </c>
       <c r="F81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J81">
+        <v>1461.03</v>
+      </c>
+      <c r="K81">
+        <v>49.27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D82">
         <v>2525.94</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C83">
+        <v>2986.71</v>
       </c>
       <c r="D83">
         <v>1867.05</v>
       </c>
+      <c r="E83">
+        <v>1119.66</v>
+      </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G83">
         <v>0.91</v>
@@ -2366,61 +2582,300 @@
       <c r="I83">
         <v>1552.94</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83">
+        <v>1453.27</v>
+      </c>
+      <c r="K83">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C84">
+        <v>2487.29</v>
       </c>
       <c r="D84">
         <v>2023.32</v>
       </c>
+      <c r="E84">
+        <v>463.96</v>
+      </c>
       <c r="F84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J84">
+        <v>1431.28</v>
+      </c>
+      <c r="K84">
+        <v>48.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C85">
+        <v>1906.71</v>
       </c>
       <c r="D85">
         <v>2062.88</v>
       </c>
+      <c r="E85">
+        <v>156.16</v>
+      </c>
       <c r="F85" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J85">
+        <v>1403.56</v>
+      </c>
+      <c r="K85">
+        <v>47.46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D86">
         <v>2215.31</v>
       </c>
       <c r="F86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D87">
         <v>2218.77</v>
       </c>
       <c r="F87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>2986.71</v>
+      </c>
+      <c r="D88">
+        <v>1623.7</v>
+      </c>
+      <c r="E88">
+        <v>1363.02</v>
+      </c>
+      <c r="F88" t="s">
+        <v>67</v>
+      </c>
+      <c r="J88">
+        <v>1402.7</v>
+      </c>
+      <c r="K88">
+        <v>47.42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89">
+        <v>2487.29</v>
+      </c>
+      <c r="D89">
+        <v>1530.02</v>
+      </c>
+      <c r="E89">
+        <v>957.27</v>
+      </c>
+      <c r="F89" t="s">
+        <v>67</v>
+      </c>
+      <c r="J89">
+        <v>1393.42</v>
+      </c>
+      <c r="K89">
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90">
+        <v>1906.71</v>
+      </c>
+      <c r="D90">
+        <v>1678.77</v>
+      </c>
+      <c r="E90">
+        <v>227.95</v>
+      </c>
+      <c r="F90" t="s">
+        <v>67</v>
+      </c>
+      <c r="J90">
+        <v>1369.64</v>
+      </c>
+      <c r="K90">
+        <v>46.51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91">
+        <v>2123.42</v>
+      </c>
+      <c r="F91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
         <v>65</v>
+      </c>
+      <c r="D92">
+        <v>2065.07</v>
+      </c>
+      <c r="F92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93">
+        <v>2487.29</v>
+      </c>
+      <c r="D93">
+        <v>1531.37</v>
+      </c>
+      <c r="E93">
+        <v>955.92</v>
+      </c>
+      <c r="F93" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93">
+        <v>1.57</v>
+      </c>
+      <c r="H93">
+        <v>45.22</v>
+      </c>
+      <c r="I93">
+        <v>1372.81</v>
+      </c>
+      <c r="J93">
+        <v>1361.36</v>
+      </c>
+      <c r="K93">
+        <v>46.35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94">
+        <v>1906.71</v>
+      </c>
+      <c r="D94">
+        <v>1681.72</v>
+      </c>
+      <c r="E94">
+        <v>224.99</v>
+      </c>
+      <c r="F94" t="s">
+        <v>67</v>
+      </c>
+      <c r="J94">
+        <v>1339.08</v>
+      </c>
+      <c r="K94">
+        <v>45.67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95">
+        <v>2126.75</v>
+      </c>
+      <c r="F95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D96">
+        <v>2069.21</v>
+      </c>
+      <c r="F96" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97">
+        <v>2175.19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2148.43</v>
@@ -633,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0.96</v>
@@ -650,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>2202.86</v>
@@ -662,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1933.57</v>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1753.71</v>
@@ -702,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1426.86</v>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1220.57</v>
@@ -742,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>946.14</v>
@@ -762,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>873.71</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>744.29</v>
@@ -802,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>602.14</v>
@@ -822,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>565.86</v>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>524.14</v>
@@ -862,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>748.86</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>786.29</v>
@@ -902,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>922</v>
@@ -922,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>1140.43</v>
@@ -942,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>1038.43</v>
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>1007.43</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>973.4299999999999</v>
@@ -1002,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>894.5700000000001</v>
@@ -1022,7 +1031,7 @@
         <v>7.92</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>846.4299999999999</v>
@@ -1042,7 +1051,7 @@
         <v>201.59</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>733.14</v>
@@ -1062,7 +1071,7 @@
         <v>236.12</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>797.86</v>
@@ -1082,7 +1091,7 @@
         <v>32.17</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>766.4299999999999</v>
@@ -1102,7 +1111,7 @@
         <v>164.55</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>702.14</v>
@@ -1122,7 +1131,7 @@
         <v>213.97</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>714.29</v>
@@ -1142,7 +1151,7 @@
         <v>128.71</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>717.4299999999999</v>
@@ -1162,7 +1171,7 @@
         <v>142.63</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>821.5700000000001</v>
@@ -1182,7 +1191,7 @@
         <v>11.98</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>819</v>
@@ -1202,7 +1211,7 @@
         <v>82.91</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>994.86</v>
@@ -1222,7 +1231,7 @@
         <v>86.84999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>1087.29</v>
@@ -1242,7 +1251,7 @@
         <v>229.66</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>1466.29</v>
@@ -1262,7 +1271,7 @@
         <v>627.4</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>1447.14</v>
@@ -1282,7 +1291,7 @@
         <v>645.49</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>2150.29</v>
@@ -1302,7 +1311,7 @@
         <v>1339.7</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1310,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>2383.14</v>
@@ -1322,7 +1331,7 @@
         <v>1521.53</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1330,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>2607.86</v>
@@ -1342,7 +1351,7 @@
         <v>1821.36</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1350,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>2241.86</v>
@@ -1362,7 +1371,7 @@
         <v>901.9400000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J38">
         <v>901.9400000000001</v>
@@ -1376,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>2605</v>
@@ -1388,7 +1397,7 @@
         <v>1317</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J39">
         <v>1109.47</v>
@@ -1402,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>3173.86</v>
@@ -1414,7 +1423,7 @@
         <v>1816.94</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J40">
         <v>1345.29</v>
@@ -1428,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>3334.29</v>
@@ -1440,7 +1449,7 @@
         <v>1607.75</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J41">
         <v>1410.91</v>
@@ -1454,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>3059</v>
@@ -1466,7 +1475,7 @@
         <v>1268.35</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J42">
         <v>1382.4</v>
@@ -1480,7 +1489,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>2605</v>
@@ -1492,7 +1501,7 @@
         <v>1404.17</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G43">
         <v>0.73</v>
@@ -1515,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>3173.86</v>
@@ -1527,7 +1536,7 @@
         <v>2031.53</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J44">
         <v>1478.24</v>
@@ -1541,7 +1550,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>3334.29</v>
@@ -1553,7 +1562,7 @@
         <v>1930.46</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J45">
         <v>1534.77</v>
@@ -1567,7 +1576,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>3059</v>
@@ -1579,7 +1588,7 @@
         <v>1820.3</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J46">
         <v>1566.49</v>
@@ -1593,25 +1602,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D47">
         <v>1152.55</v>
       </c>
       <c r="E47">
-        <v>1977.74</v>
+        <v>1981.59</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J47">
-        <v>1607.62</v>
+        <v>1608</v>
       </c>
       <c r="K47">
-        <v>53.62</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1619,7 +1628,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>3173.86</v>
@@ -1631,7 +1640,7 @@
         <v>1948.31</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1.02</v>
@@ -1643,7 +1652,7 @@
         <v>1833.86</v>
       </c>
       <c r="J48">
-        <v>1638.59</v>
+        <v>1638.94</v>
       </c>
       <c r="K48">
         <v>54.33</v>
@@ -1654,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>3334.29</v>
@@ -1666,10 +1675,10 @@
         <v>2096.99</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J49">
-        <v>1676.79</v>
+        <v>1677.11</v>
       </c>
       <c r="K49">
         <v>55.04</v>
@@ -1680,7 +1689,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>3059</v>
@@ -1692,10 +1701,10 @@
         <v>1765.07</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J50">
-        <v>1683.58</v>
+        <v>1683.88</v>
       </c>
       <c r="K50">
         <v>55.25</v>
@@ -1706,22 +1715,22 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D51">
         <v>1281.71</v>
       </c>
       <c r="E51">
-        <v>1848.57</v>
+        <v>1852.43</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J51">
-        <v>1695.37</v>
+        <v>1695.92</v>
       </c>
       <c r="K51">
         <v>55.52</v>
@@ -1732,25 +1741,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D52">
         <v>1467.27</v>
       </c>
       <c r="E52">
-        <v>1519.45</v>
+        <v>1523.3</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J52">
-        <v>1683.64</v>
+        <v>1684.41</v>
       </c>
       <c r="K52">
-        <v>55.21</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1758,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53">
         <v>3334.29</v>
@@ -1770,7 +1779,7 @@
         <v>2121.48</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>0.82</v>
@@ -1782,10 +1791,10 @@
         <v>1790.2</v>
       </c>
       <c r="J53">
-        <v>1711</v>
+        <v>1711.73</v>
       </c>
       <c r="K53">
-        <v>55.73</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1793,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>3059</v>
@@ -1805,13 +1814,13 @@
         <v>1816.62</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J54">
-        <v>1717.22</v>
+        <v>1717.9</v>
       </c>
       <c r="K54">
-        <v>55.95</v>
+        <v>55.96</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1819,25 +1828,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D55">
         <v>1218.44</v>
       </c>
       <c r="E55">
-        <v>1911.84</v>
+        <v>1915.7</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J55">
-        <v>1728.03</v>
+        <v>1728.89</v>
       </c>
       <c r="K55">
-        <v>56.23</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1845,25 +1854,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D56">
         <v>1226.91</v>
       </c>
       <c r="E56">
-        <v>1759.81</v>
+        <v>1763.67</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>1729.7</v>
+        <v>1730.72</v>
       </c>
       <c r="K56">
-        <v>56.38</v>
+        <v>56.39</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1871,25 +1880,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D57">
         <v>1447.78</v>
       </c>
       <c r="E57">
-        <v>1039.51</v>
+        <v>1045.51</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J57">
-        <v>1695.19</v>
+        <v>1696.46</v>
       </c>
       <c r="K57">
-        <v>55.65</v>
+        <v>55.67</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1897,7 +1906,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58">
         <v>3334.29</v>
@@ -1909,7 +1918,7 @@
         <v>2206.23</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G58">
         <v>0.87</v>
@@ -1921,10 +1930,10 @@
         <v>1893.79</v>
       </c>
       <c r="J58">
-        <v>1719.53</v>
+        <v>1720.73</v>
       </c>
       <c r="K58">
-        <v>56.15</v>
+        <v>56.17</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1932,7 +1941,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59">
         <v>3059</v>
@@ -1944,13 +1953,13 @@
         <v>1792.5</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J59">
-        <v>1722.84</v>
+        <v>1723.99</v>
       </c>
       <c r="K59">
-        <v>56.26</v>
+        <v>56.28</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1958,25 +1967,25 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D60">
         <v>1274.17</v>
       </c>
       <c r="E60">
-        <v>1856.11</v>
+        <v>1859.97</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J60">
-        <v>1728.64</v>
+        <v>1729.9</v>
       </c>
       <c r="K60">
-        <v>56.39</v>
+        <v>56.41</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1984,25 +1993,25 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D61">
         <v>1286.63</v>
       </c>
       <c r="E61">
-        <v>1700.08</v>
+        <v>1703.94</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J61">
-        <v>1727.45</v>
+        <v>1728.82</v>
       </c>
       <c r="K61">
-        <v>56.41</v>
+        <v>56.43</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2010,25 +2019,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D62">
         <v>1526.29</v>
       </c>
       <c r="E62">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J62">
-        <v>1696.79</v>
+        <v>1698.35</v>
       </c>
       <c r="K62">
-        <v>55.7</v>
+        <v>55.73</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2036,7 +2045,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <v>3059</v>
@@ -2048,7 +2057,7 @@
         <v>1816.64</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G63">
         <v>0.9399999999999999</v>
@@ -2060,10 +2069,10 @@
         <v>2120.76</v>
       </c>
       <c r="J63">
-        <v>1701.4</v>
+        <v>1702.9</v>
       </c>
       <c r="K63">
-        <v>55.84</v>
+        <v>55.87</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2071,25 +2080,25 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D64">
         <v>1218.33</v>
       </c>
       <c r="E64">
-        <v>1911.95</v>
+        <v>1915.81</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J64">
-        <v>1709.2</v>
+        <v>1710.78</v>
       </c>
       <c r="K64">
-        <v>56.04</v>
+        <v>56.06</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2097,25 +2106,25 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D65">
         <v>1226.84</v>
       </c>
       <c r="E65">
-        <v>1759.87</v>
+        <v>1763.73</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J65">
-        <v>1711.01</v>
+        <v>1712.68</v>
       </c>
       <c r="K65">
-        <v>56.14</v>
+        <v>56.17</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2123,25 +2132,25 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D66">
         <v>1447.57</v>
       </c>
       <c r="E66">
-        <v>1039.72</v>
+        <v>1045.72</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J66">
-        <v>1687.86</v>
+        <v>1689.68</v>
       </c>
       <c r="K66">
-        <v>55.65</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2149,25 +2158,25 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D67">
         <v>1695.52</v>
       </c>
       <c r="E67">
-        <v>211.19</v>
+        <v>154.91</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J67">
-        <v>1638.64</v>
+        <v>1638.52</v>
       </c>
       <c r="K67">
-        <v>54.16</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2175,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68">
         <v>3059</v>
@@ -2187,7 +2196,7 @@
         <v>1797.96</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H68">
         <v>63.29</v>
@@ -2196,10 +2205,10 @@
         <v>2109.82</v>
       </c>
       <c r="J68">
-        <v>1643.78</v>
+        <v>1643.66</v>
       </c>
       <c r="K68">
-        <v>54.31</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2207,25 +2216,25 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D69">
         <v>1299.4</v>
       </c>
       <c r="E69">
-        <v>1830.88</v>
+        <v>1834.74</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J69">
-        <v>1649.62</v>
+        <v>1649.63</v>
       </c>
       <c r="K69">
-        <v>54.44</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2233,25 +2242,25 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D70">
         <v>1350.26</v>
       </c>
       <c r="E70">
-        <v>1636.46</v>
+        <v>1640.31</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J70">
-        <v>1649.22</v>
+        <v>1649.35</v>
       </c>
       <c r="K70">
-        <v>54.45</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2259,25 +2268,25 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D71">
         <v>1581.74</v>
       </c>
       <c r="E71">
-        <v>905.55</v>
+        <v>911.55</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J71">
-        <v>1627.35</v>
+        <v>1627.65</v>
       </c>
       <c r="K71">
-        <v>53.92</v>
+        <v>53.87</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2285,25 +2294,25 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D72">
         <v>1733.99</v>
       </c>
       <c r="E72">
-        <v>172.72</v>
+        <v>116.44</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J72">
-        <v>1585.79</v>
+        <v>1584.47</v>
       </c>
       <c r="K72">
-        <v>52.64</v>
+        <v>52.51</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2311,19 +2320,19 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D73">
         <v>1706.37</v>
       </c>
       <c r="E73">
-        <v>1423.92</v>
+        <v>1427.78</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G73">
         <v>1.1</v>
@@ -2335,10 +2344,10 @@
         <v>1778.8</v>
       </c>
       <c r="J73">
-        <v>1581.29</v>
+        <v>1580.12</v>
       </c>
       <c r="K73">
-        <v>52.44</v>
+        <v>52.32</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2346,25 +2355,25 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D74">
         <v>1881.15</v>
       </c>
       <c r="E74">
-        <v>1105.56</v>
+        <v>1109.42</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J74">
-        <v>1568.44</v>
+        <v>1567.4</v>
       </c>
       <c r="K74">
-        <v>52.02</v>
+        <v>51.91</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2372,25 +2381,25 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D75">
         <v>2311.76</v>
       </c>
       <c r="E75">
-        <v>175.53</v>
+        <v>181.53</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J75">
-        <v>1531.78</v>
+        <v>1530.93</v>
       </c>
       <c r="K75">
-        <v>50.84</v>
+        <v>50.74</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2398,22 +2407,22 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D76">
         <v>2463.65</v>
       </c>
       <c r="E76">
-        <v>556.9400000000001</v>
+        <v>613.22</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J76">
-        <v>1506.79</v>
+        <v>1507.4</v>
       </c>
       <c r="K76">
         <v>50.28</v>
@@ -2424,13 +2433,13 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D77">
         <v>2186.97</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2438,25 +2447,25 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C78">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D78">
         <v>1778.17</v>
       </c>
       <c r="E78">
-        <v>1352.11</v>
+        <v>1355.97</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I78">
         <v>1778.81</v>
       </c>
       <c r="J78">
-        <v>1502.92</v>
+        <v>1503.61</v>
       </c>
       <c r="K78">
         <v>50.11</v>
@@ -2467,25 +2476,25 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C79">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D79">
         <v>1839.23</v>
       </c>
       <c r="E79">
-        <v>1147.49</v>
+        <v>1151.34</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J79">
-        <v>1494.25</v>
+        <v>1495.02</v>
       </c>
       <c r="K79">
-        <v>49.82</v>
+        <v>49.83</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2493,25 +2502,25 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C80">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D80">
         <v>2014.14</v>
       </c>
       <c r="E80">
-        <v>473.15</v>
+        <v>479.15</v>
       </c>
       <c r="F80" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J80">
-        <v>1469.94</v>
+        <v>1470.83</v>
       </c>
       <c r="K80">
-        <v>49.09</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2519,25 +2528,25 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D81">
         <v>2993.43</v>
       </c>
       <c r="E81">
-        <v>1086.71</v>
+        <v>1143</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J81">
-        <v>1461.03</v>
+        <v>1463.21</v>
       </c>
       <c r="K81">
-        <v>49.27</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2545,13 +2554,13 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D82">
         <v>2525.94</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2559,19 +2568,19 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C83">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D83">
         <v>1867.05</v>
       </c>
       <c r="E83">
-        <v>1119.66</v>
+        <v>1123.52</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G83">
         <v>0.91</v>
@@ -2583,10 +2592,10 @@
         <v>1552.94</v>
       </c>
       <c r="J83">
-        <v>1453.27</v>
+        <v>1455.49</v>
       </c>
       <c r="K83">
-        <v>49</v>
+        <v>49.12</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2594,25 +2603,25 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C84">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D84">
         <v>2023.32</v>
       </c>
       <c r="E84">
-        <v>463.96</v>
+        <v>469.96</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J84">
-        <v>1431.28</v>
+        <v>1433.59</v>
       </c>
       <c r="K84">
-        <v>48.33</v>
+        <v>48.45</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2620,25 +2629,25 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C85">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D85">
         <v>2062.88</v>
       </c>
       <c r="E85">
-        <v>156.16</v>
+        <v>212.45</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J85">
-        <v>1403.56</v>
+        <v>1407.04</v>
       </c>
       <c r="K85">
-        <v>47.46</v>
+        <v>47.65</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2646,13 +2655,13 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D86">
         <v>2215.31</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2660,13 +2669,13 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D87">
         <v>2218.77</v>
       </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2674,25 +2683,25 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C88">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D88">
         <v>1623.7</v>
       </c>
       <c r="E88">
-        <v>1363.02</v>
+        <v>1366.87</v>
       </c>
       <c r="F88" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J88">
-        <v>1402.7</v>
+        <v>1406.19</v>
       </c>
       <c r="K88">
-        <v>47.42</v>
+        <v>47.61</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2700,25 +2709,25 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C89">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D89">
         <v>1530.02</v>
       </c>
       <c r="E89">
-        <v>957.27</v>
+        <v>963.27</v>
       </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J89">
-        <v>1393.42</v>
+        <v>1396.96</v>
       </c>
       <c r="K89">
-        <v>47.23</v>
+        <v>47.42</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2726,25 +2735,25 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C90">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D90">
         <v>1678.77</v>
       </c>
       <c r="E90">
-        <v>227.95</v>
+        <v>171.66</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J90">
-        <v>1369.64</v>
+        <v>1371.95</v>
       </c>
       <c r="K90">
-        <v>46.51</v>
+        <v>46.64</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2752,13 +2761,13 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D91">
         <v>2123.42</v>
       </c>
       <c r="F91" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2766,13 +2775,13 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D92">
         <v>2065.07</v>
       </c>
       <c r="F92" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2780,19 +2789,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C93">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D93">
         <v>1531.37</v>
       </c>
       <c r="E93">
-        <v>955.92</v>
+        <v>961.92</v>
       </c>
       <c r="F93" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G93">
         <v>1.57</v>
@@ -2804,10 +2813,10 @@
         <v>1372.81</v>
       </c>
       <c r="J93">
-        <v>1361.36</v>
+        <v>1363.75</v>
       </c>
       <c r="K93">
-        <v>46.35</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2815,25 +2824,25 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C94">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D94">
         <v>1681.72</v>
       </c>
       <c r="E94">
-        <v>224.99</v>
+        <v>168.71</v>
       </c>
       <c r="F94" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J94">
-        <v>1339.08</v>
+        <v>1340.32</v>
       </c>
       <c r="K94">
-        <v>45.67</v>
+        <v>45.75</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2841,13 +2850,13 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D95">
         <v>2126.75</v>
       </c>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2855,27 +2864,106 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D96">
         <v>2069.21</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D97">
         <v>2175.19</v>
       </c>
       <c r="F97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+      <c r="D98">
+        <v>1987.87</v>
+      </c>
+      <c r="F98" t="s">
+        <v>70</v>
+      </c>
+      <c r="G98">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H98">
+        <v>38.73</v>
+      </c>
+      <c r="I98">
+        <v>716.72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99">
+        <v>2154.54</v>
+      </c>
+      <c r="F99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
         <v>67</v>
+      </c>
+      <c r="D100">
+        <v>2371.43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101">
+        <v>2340.51</v>
+      </c>
+      <c r="F101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102">
+        <v>2351.15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
